--- a/Prototype_Inorganic_Removal.xlsx
+++ b/Prototype_Inorganic_Removal.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/DWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93BF2BDA-63C2-43C9-B761-C6DE9E2871E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{875C4232-E17E-4BF1-B663-C50424829E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8213E07F-D32A-468E-93B9-686D6965A039}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="10">
   <si>
     <t>Week</t>
   </si>
@@ -439,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A810D184-DD2E-4E11-B8AF-1407056D61FF}">
   <dimension ref="A1:E263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection sqref="A1:E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4895,4 +4896,3891 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85662563-A95A-4CD2-BD22-DB83049EB733}">
+  <dimension ref="A1:E229"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E229"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-1.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-0.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>34.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>-1.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>26.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>-1.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>28.51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>-3.85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>27.94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>31.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>16.18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>81.680000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>61.54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>90.91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>-33.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>93.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>94.24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>-38.46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>80.59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>70.91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>47.92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>77.930000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>-8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>-11.03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>21.89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>-12.66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>-50.82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>-172.85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>33.270000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>-24.14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>-9.24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>-5.31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>-1.82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>-10.18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>-5.08</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>29.81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>-20.79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>-6.02</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>-9.35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>18.59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>11</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>21.11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>11</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>-5.76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>46.93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>-1.99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>13</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>13</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>14</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>14</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>15</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>-4.95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>15</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>-5.83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>16</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>-23.19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>16</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>17</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>27.71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>17</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>-6.84</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>43.27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>-15.03</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>7</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>44.21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>-21.43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>-2.38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>11</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>34.770000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>11</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>13</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>-4.76</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>13</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>14</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>14</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>15</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>15</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>-4.32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>16</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>16</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>17</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>17</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>86.27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>76.36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>-7.69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>81.48</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174">
+        <v>7</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>7</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>-78.13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>8</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178">
+        <v>9</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>-45.61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>9</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>68.349999999999994</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>10</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>72.94</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>60.26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>84.58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>55.56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184">
+        <v>12</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>12</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <v>13</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187">
+        <v>13</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>44.44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188">
+        <v>14</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>14</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190">
+        <v>15</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>15</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191">
+        <v>-18.18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192">
+        <v>16</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>-6.45</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>16</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>17</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>76.040000000000006</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195">
+        <v>17</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <v>-134.21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="E197">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <v>-591.29999999999995</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>-5.22</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>4</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>-3.53</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>-21.05</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
+        <v>5</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="E205">
+        <v>-22.03</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206">
+        <v>-51.56</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>6</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>-7.27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>-1245</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
+        <v>7</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>-22.26</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>8</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <v>-193.29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
+        <v>8</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212">
+        <v>9</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <v>92.11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213">
+        <v>9</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213">
+        <v>-12.21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214">
+        <v>10</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <v>-92.57</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
+        <v>11</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <v>-148.38999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>11</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>-27.83</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218">
+        <v>12</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+      <c r="E218">
+        <v>79.87</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <v>12</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <v>-29.41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220">
+        <v>13</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <v>-62.59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221">
+        <v>13</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <v>-18.07</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222">
+        <v>14</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>-66.67</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223">
+        <v>14</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223">
+        <v>-70.59</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>15</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>-94.58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225">
+        <v>15</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <v>-113.75</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226">
+        <v>16</v>
+      </c>
+      <c r="D226">
+        <v>2</v>
+      </c>
+      <c r="E226">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227">
+        <v>16</v>
+      </c>
+      <c r="D227">
+        <v>2</v>
+      </c>
+      <c r="E227">
+        <v>-189.57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>17</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <v>-61.54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229">
+        <v>17</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>-38.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>